--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H2">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I2">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J2">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N2">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q2">
-        <v>21081.98193543261</v>
+        <v>34.87271963037156</v>
       </c>
       <c r="R2">
-        <v>21081.98193543261</v>
+        <v>313.854476673344</v>
       </c>
       <c r="S2">
-        <v>0.157826879741176</v>
+        <v>0.0002170223510702168</v>
       </c>
       <c r="T2">
-        <v>0.157826879741176</v>
+        <v>0.0002170223510702169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H3">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I3">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J3">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q3">
-        <v>52569.7437110465</v>
+        <v>47.37916206945778</v>
       </c>
       <c r="R3">
-        <v>52569.7437110465</v>
+        <v>426.41245862512</v>
       </c>
       <c r="S3">
-        <v>0.3935549629118644</v>
+        <v>0.0002948533195299002</v>
       </c>
       <c r="T3">
-        <v>0.3935549629118644</v>
+        <v>0.0002948533195299002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H4">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I4">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J4">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N4">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q4">
-        <v>48205.30019278583</v>
+        <v>45.52023725305244</v>
       </c>
       <c r="R4">
-        <v>48205.30019278583</v>
+        <v>409.682135277472</v>
       </c>
       <c r="S4">
-        <v>0.3608812558380543</v>
+        <v>0.0002832847284250154</v>
       </c>
       <c r="T4">
-        <v>0.3608812558380543</v>
+        <v>0.0002832847284250155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H5">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I5">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J5">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N5">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q5">
-        <v>11364.08120181893</v>
+        <v>10.27598631540622</v>
       </c>
       <c r="R5">
-        <v>11364.08120181893</v>
+        <v>92.483876838656</v>
       </c>
       <c r="S5">
-        <v>0.08507537302240031</v>
+        <v>6.395023770364515E-05</v>
       </c>
       <c r="T5">
-        <v>0.08507537302240031</v>
+        <v>6.395023770364516E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H6">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I6">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J6">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N6">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O6">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P6">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q6">
-        <v>5.049411747569647</v>
+        <v>40415.53233972167</v>
       </c>
       <c r="R6">
-        <v>5.049411747569647</v>
+        <v>363739.7910574951</v>
       </c>
       <c r="S6">
-        <v>3.780161196836745E-05</v>
+        <v>0.2515167713068706</v>
       </c>
       <c r="T6">
-        <v>3.780161196836745E-05</v>
+        <v>0.2515167713068706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H7">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I7">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J7">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N7">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O7">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P7">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q7">
-        <v>12.59114452684103</v>
+        <v>54909.79989927111</v>
       </c>
       <c r="R7">
-        <v>12.59114452684103</v>
+        <v>494188.1990934399</v>
       </c>
       <c r="S7">
-        <v>9.426158598976742E-05</v>
+        <v>0.3417185122710202</v>
       </c>
       <c r="T7">
-        <v>9.426158598976742E-05</v>
+        <v>0.3417185122710202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H8">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I8">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J8">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N8">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O8">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P8">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q8">
-        <v>11.54580294367278</v>
+        <v>52755.4099683777</v>
       </c>
       <c r="R8">
-        <v>11.54580294367278</v>
+        <v>474798.6897153993</v>
       </c>
       <c r="S8">
-        <v>8.643580372506213E-05</v>
+        <v>0.3283111619731305</v>
       </c>
       <c r="T8">
-        <v>8.643580372506213E-05</v>
+        <v>0.3283111619731305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H9">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I9">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J9">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N9">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O9">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P9">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q9">
-        <v>2.721846802475329</v>
+        <v>11909.29361560702</v>
       </c>
       <c r="R9">
-        <v>2.721846802475329</v>
+        <v>107183.6425404632</v>
       </c>
       <c r="S9">
-        <v>2.037666995844349E-05</v>
+        <v>0.07411475008085056</v>
       </c>
       <c r="T9">
-        <v>2.037666995844349E-05</v>
+        <v>0.07411475008085057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H10">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I10">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J10">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N10">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O10">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P10">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q10">
-        <v>51.21062140645953</v>
+        <v>16.20730690667311</v>
       </c>
       <c r="R10">
-        <v>51.21062140645953</v>
+        <v>145.865762160058</v>
       </c>
       <c r="S10">
-        <v>0.0003833801115541239</v>
+        <v>0.0001008624473996979</v>
       </c>
       <c r="T10">
-        <v>0.0003833801115541239</v>
+        <v>0.0001008624473996979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H11">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I11">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J11">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N11">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O11">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P11">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q11">
-        <v>127.6981097349453</v>
+        <v>22.01975150719056</v>
       </c>
       <c r="R11">
-        <v>127.6981097349453</v>
+        <v>198.177763564715</v>
       </c>
       <c r="S11">
-        <v>0.0009559914371446943</v>
+        <v>0.0001370348597047901</v>
       </c>
       <c r="T11">
-        <v>0.0009559914371446943</v>
+        <v>0.0001370348597047901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H12">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I12">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J12">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N12">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O12">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P12">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q12">
-        <v>117.0963615051987</v>
+        <v>21.15580498006989</v>
       </c>
       <c r="R12">
-        <v>117.0963615051987</v>
+        <v>190.402244820629</v>
       </c>
       <c r="S12">
-        <v>0.0008766231477672036</v>
+        <v>0.0001316582871718185</v>
       </c>
       <c r="T12">
-        <v>0.0008766231477672036</v>
+        <v>0.0001316582871718185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.085526333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.256579</v>
+      </c>
+      <c r="I13">
+        <v>0.0003992768531916849</v>
+      </c>
+      <c r="J13">
+        <v>0.0003992768531916849</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.399549333333334</v>
+      </c>
+      <c r="N13">
+        <v>13.198648</v>
+      </c>
+      <c r="O13">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="P13">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="Q13">
+        <v>4.775826656132445</v>
+      </c>
+      <c r="R13">
+        <v>42.982439905192</v>
+      </c>
+      <c r="S13">
+        <v>2.97212589153785E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.97212589153785E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H14">
+        <v>25.124474</v>
+      </c>
+      <c r="I14">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J14">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.93036733333333</v>
+      </c>
+      <c r="N14">
+        <v>44.791102</v>
+      </c>
+      <c r="O14">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="P14">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="Q14">
+        <v>125.0392086255942</v>
+      </c>
+      <c r="R14">
+        <v>1125.352877630348</v>
+      </c>
+      <c r="S14">
+        <v>0.0007781527600804637</v>
+      </c>
+      <c r="T14">
+        <v>0.0007781527600804637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H15">
+        <v>25.124474</v>
+      </c>
+      <c r="I15">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J15">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>20.28486166666667</v>
+      </c>
+      <c r="N15">
+        <v>60.854585</v>
+      </c>
+      <c r="O15">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="P15">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="Q15">
+        <v>169.8821598459211</v>
+      </c>
+      <c r="R15">
+        <v>1528.93943861329</v>
+      </c>
+      <c r="S15">
+        <v>0.001057222554633757</v>
+      </c>
+      <c r="T15">
+        <v>0.001057222554633757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.55562266865624</v>
-      </c>
-      <c r="H13">
-        <v>6.55562266865624</v>
-      </c>
-      <c r="I13">
-        <v>0.002422652814863373</v>
-      </c>
-      <c r="J13">
-        <v>0.002422652814863373</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.21084241521792</v>
-      </c>
-      <c r="N13">
-        <v>4.21084241521792</v>
-      </c>
-      <c r="O13">
-        <v>0.08530240781075613</v>
-      </c>
-      <c r="P13">
-        <v>0.08530240781075613</v>
-      </c>
-      <c r="Q13">
-        <v>27.60469399134179</v>
-      </c>
-      <c r="R13">
-        <v>27.60469399134179</v>
-      </c>
-      <c r="S13">
-        <v>0.0002066581183973517</v>
-      </c>
-      <c r="T13">
-        <v>0.0002066581183973517</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H16">
+        <v>25.124474</v>
+      </c>
+      <c r="I16">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J16">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.48898366666667</v>
+      </c>
+      <c r="N16">
+        <v>58.466951</v>
+      </c>
+      <c r="O16">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="P16">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="Q16">
+        <v>163.2168211398638</v>
+      </c>
+      <c r="R16">
+        <v>1468.951390258774</v>
+      </c>
+      <c r="S16">
+        <v>0.001015742351999717</v>
+      </c>
+      <c r="T16">
+        <v>0.001015742351999717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H17">
+        <v>25.124474</v>
+      </c>
+      <c r="I17">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J17">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.399549333333334</v>
+      </c>
+      <c r="N17">
+        <v>13.198648</v>
+      </c>
+      <c r="O17">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="P17">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="Q17">
+        <v>36.84545427901689</v>
+      </c>
+      <c r="R17">
+        <v>331.609088511152</v>
+      </c>
+      <c r="S17">
+        <v>0.0002292992114936242</v>
+      </c>
+      <c r="T17">
+        <v>0.0002292992114936242</v>
       </c>
     </row>
   </sheetData>
